--- a/NEW HR/SORIANO, FRANCISCO.xlsx
+++ b/NEW HR/SORIANO, FRANCISCO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -646,17 +646,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -666,6 +663,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1588,14 +1588,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1607,16 +1607,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40003</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1630,14 +1630,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1670,18 +1670,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3635,17 +3635,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3681,9 +3681,9 @@
   <dimension ref="A2:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,14 +3713,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3732,16 +3732,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40003</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3755,14 +3755,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3795,18 +3795,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4553,8 +4553,12 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="43">
+        <v>44986</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C41" s="14"/>
       <c r="D41" s="42"/>
       <c r="E41" s="10"/>
@@ -4566,7 +4570,9 @@
       <c r="H41" s="42"/>
       <c r="I41" s="10"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
+      <c r="K41" s="50">
+        <v>45021</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>

--- a/NEW HR/SORIANO, FRANCISCO.xlsx
+++ b/NEW HR/SORIANO, FRANCISCO.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>1/12,13/2023</t>
+  </si>
+  <si>
+    <t>BDAY 5/17/23</t>
   </si>
 </sst>
 </file>
@@ -646,14 +649,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -663,9 +669,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1588,14 +1591,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1607,16 +1610,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40003</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1630,14 +1633,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1670,18 +1673,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3635,17 +3638,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3683,7 +3686,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,14 +3716,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3732,16 +3735,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40003</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3755,14 +3758,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3795,18 +3798,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4576,7 +4579,9 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="C42" s="14"/>
       <c r="D42" s="42"/>
       <c r="E42" s="10"/>
@@ -4588,7 +4593,9 @@
       <c r="H42" s="42"/>
       <c r="I42" s="10"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
+      <c r="K42" s="21" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>

--- a/NEW HR/SORIANO, FRANCISCO.xlsx
+++ b/NEW HR/SORIANO, FRANCISCO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>BDAY 5/17/23</t>
+  </si>
+  <si>
+    <t>6/6,7,8/2023</t>
   </si>
 </sst>
 </file>
@@ -649,17 +652,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -669,6 +669,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1558,7 +1561,7 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
@@ -1591,14 +1594,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1610,16 +1613,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40003</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1633,14 +1636,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1673,18 +1676,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3638,17 +3641,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3683,10 +3686,10 @@
   </sheetPr>
   <dimension ref="A2:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,14 +3719,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3735,16 +3738,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>40003</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3758,14 +3761,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3798,18 +3801,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3856,7 +3859,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.375</v>
+        <v>77.375</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4598,7 +4601,9 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="43">
+        <v>45017</v>
+      </c>
       <c r="B43" s="21"/>
       <c r="C43" s="14"/>
       <c r="D43" s="42"/>
@@ -4614,10 +4619,16 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="43">
+        <v>45047</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="C44" s="14"/>
-      <c r="D44" s="42"/>
+      <c r="D44" s="42">
+        <v>3</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="21"/>
       <c r="G44" s="14" t="str">
@@ -4627,7 +4638,9 @@
       <c r="H44" s="42"/>
       <c r="I44" s="10"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
+      <c r="K44" s="21" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>

--- a/NEW HR/SORIANO, FRANCISCO.xlsx
+++ b/NEW HR/SORIANO, FRANCISCO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>6/6,7,8/2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>7/27,31/2023</t>
   </si>
 </sst>
 </file>
@@ -652,14 +658,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -669,9 +678,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1561,10 +1567,10 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,14 +1600,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1613,16 +1619,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40003</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1636,14 +1642,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1676,18 +1682,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1734,7 +1740,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1744,7 +1750,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3176,15 +3182,19 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
+      <c r="A80" s="43">
+        <v>44986</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="42"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="42"/>
       <c r="I80" s="10"/>
@@ -3192,15 +3202,19 @@
       <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
+      <c r="A81" s="43">
+        <v>45017</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="42"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="42"/>
       <c r="I81" s="10"/>
@@ -3208,15 +3222,19 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
+      <c r="A82" s="43">
+        <v>45047</v>
+      </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="42"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="42"/>
       <c r="I82" s="10"/>
@@ -3224,15 +3242,19 @@
       <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
+      <c r="A83" s="43">
+        <v>45078</v>
+      </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="42"/>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="42"/>
       <c r="I83" s="10"/>
@@ -3240,7 +3262,9 @@
       <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="43"/>
+      <c r="A84" s="43">
+        <v>45108</v>
+      </c>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
       <c r="D84" s="42"/>
@@ -3641,17 +3665,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3686,10 +3710,10 @@
   </sheetPr>
   <dimension ref="A2:K73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,14 +3743,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3738,16 +3762,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="56">
+      <c r="F3" s="57">
         <v>40003</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3761,14 +3785,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3801,18 +3825,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3859,7 +3883,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>77.375</v>
+        <v>75.375</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4643,10 +4667,16 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="43">
+        <v>45108</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>73</v>
+      </c>
       <c r="C45" s="14"/>
-      <c r="D45" s="42"/>
+      <c r="D45" s="42">
+        <v>2</v>
+      </c>
       <c r="E45" s="10"/>
       <c r="F45" s="21"/>
       <c r="G45" s="14" t="str">
@@ -4656,7 +4686,9 @@
       <c r="H45" s="42"/>
       <c r="I45" s="10"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="21"/>
+      <c r="K45" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>

--- a/NEW HR/SORIANO, FRANCISCO.xlsx
+++ b/NEW HR/SORIANO, FRANCISCO.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>7/27,31/2023</t>
+  </si>
+  <si>
+    <t>9/4,8,12/2023</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1573,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85:K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,7 +1743,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1750,7 +1753,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3266,13 +3269,15 @@
         <v>45108</v>
       </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="42"/>
       <c r="E84" s="10"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="42"/>
       <c r="I84" s="10"/>
@@ -3713,7 +3718,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3883,7 +3888,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>75.375</v>
+        <v>71.375</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4691,10 +4696,16 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="43">
+        <v>45139</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>51</v>
+      </c>
       <c r="C46" s="14"/>
-      <c r="D46" s="42"/>
+      <c r="D46" s="42">
+        <v>3</v>
+      </c>
       <c r="E46" s="10"/>
       <c r="F46" s="21"/>
       <c r="G46" s="14" t="str">
@@ -4704,13 +4715,19 @@
       <c r="H46" s="42"/>
       <c r="I46" s="10"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="21"/>
+      <c r="K46" s="21" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
-      <c r="B47" s="21"/>
+      <c r="B47" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="C47" s="14"/>
-      <c r="D47" s="42"/>
+      <c r="D47" s="42">
+        <v>1</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="21"/>
       <c r="G47" s="14" t="str">
@@ -4720,7 +4737,9 @@
       <c r="H47" s="42"/>
       <c r="I47" s="10"/>
       <c r="J47" s="12"/>
-      <c r="K47" s="21"/>
+      <c r="K47" s="50">
+        <v>45163</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
